--- a/funds/stocks/恒瑞医药&财务报表同型分析.xlsx
+++ b/funds/stocks/恒瑞医药&财务报表同型分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
   <si>
     <t>项目</t>
   </si>
@@ -369,22 +369,34 @@
     <t>自由现金流均值(FCF)</t>
   </si>
   <si>
+    <t>EBIT</t>
+  </si>
+  <si>
     <t>营业外支出</t>
   </si>
   <si>
     <t>折现率(r)</t>
   </si>
   <si>
+    <t>经营杠杆</t>
+  </si>
+  <si>
     <t>持续经营净利润</t>
   </si>
   <si>
     <t>永续年金增长率(g)</t>
   </si>
   <si>
+    <t>财务杠杆</t>
+  </si>
+  <si>
     <t>毛利</t>
   </si>
   <si>
     <t>自由现金流增长率(G)</t>
+  </si>
+  <si>
+    <t>总杠杆</t>
   </si>
   <si>
     <t>毛利率</t>
@@ -458,12 +470,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="178" formatCode="\+0;\-0;0;@"/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
@@ -492,16 +504,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,8 +526,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,6 +589,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -537,7 +611,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,24 +633,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,53 +643,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,7 +687,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,55 +717,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,13 +753,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,13 +825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +837,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,55 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,10 +972,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -980,54 +990,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,6 +1017,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1063,10 +1075,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1075,137 +1087,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,7 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1257,7 +1269,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1282,6 +1294,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,16 +1719,16 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="3" t="s">
@@ -1731,7 +1746,7 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="32" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1761,7 +1776,7 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="41"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1789,7 +1804,7 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="41"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1817,7 +1832,7 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1845,7 +1860,7 @@
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="41"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1870,10 +1885,10 @@
       <c r="E9" s="2">
         <v>90.88</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="43">
         <v>113.6</v>
       </c>
-      <c r="H9" s="41"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1892,19 +1907,19 @@
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="44">
         <f>D4/D9</f>
         <v>0</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="44">
         <f>E4/E9</f>
         <v>0</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="44">
         <f>F4/F9</f>
         <v>0</v>
       </c>
-      <c r="H10" s="41"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1923,19 +1938,19 @@
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="44">
         <f>D5/D9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="44">
         <f>E5/E9</f>
         <v>0</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="44">
         <f>F5/F9</f>
         <v>0</v>
       </c>
-      <c r="H11" s="41"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1945,7 +1960,7 @@
       <c r="K11" s="2">
         <v>53.7</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="43">
         <v>44.11</v>
       </c>
     </row>
@@ -1954,31 +1969,31 @@
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="44">
         <f>D6/D9</f>
         <v>0</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="44">
         <f>E6/E9</f>
         <v>0</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="44">
         <f>F6/F9</f>
         <v>0</v>
       </c>
-      <c r="H12" s="41"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="44">
         <f t="shared" ref="J12:L12" si="0">J4/J11</f>
         <v>0</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1988,31 +2003,31 @@
       <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="44">
         <f>D7/D9</f>
         <v>0</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="44">
         <f>E7/E9</f>
         <v>0</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="44">
         <f>F7/F9</f>
         <v>0</v>
       </c>
-      <c r="H13" s="41"/>
+      <c r="H13" s="42"/>
       <c r="I13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="44">
         <f t="shared" ref="J13:L13" si="1">J5/J11</f>
         <v>0</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2022,31 +2037,31 @@
       <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="44">
         <f>D8/D9</f>
         <v>0</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="44">
         <f>E8/E9</f>
         <v>0</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="44">
         <f>F8/F9</f>
         <v>0</v>
       </c>
-      <c r="H14" s="41"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="44">
         <f t="shared" ref="J14:L14" si="2">J6/J11</f>
         <v>0</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2067,19 +2082,19 @@
       <c r="F15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="41"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="44">
         <f t="shared" ref="J15:L15" si="3">J7/J11</f>
         <v>0</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2098,19 +2113,19 @@
       <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="41"/>
+      <c r="H16" s="42"/>
       <c r="I16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="44">
         <f t="shared" ref="J16:L16" si="4">J8/J11</f>
         <v>0</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2129,19 +2144,19 @@
       <c r="F17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="41"/>
+      <c r="H17" s="42"/>
       <c r="I17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="44">
         <f t="shared" ref="J17:L17" si="5">J9/J11</f>
         <v>0</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2160,19 +2175,19 @@
       <c r="F18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="41"/>
+      <c r="H18" s="42"/>
       <c r="I18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="44">
         <f t="shared" ref="J18:L18" si="6">J10/J11</f>
         <v>0</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2324,15 +2339,15 @@
       <c r="C24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="44">
         <f>D15/D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="44">
         <f>E15/E23</f>
         <v>0</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="44">
         <f>F15/F23</f>
         <v>0</v>
       </c>
@@ -2355,15 +2370,15 @@
       <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="44">
         <f>D16/D23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="44">
         <f>E16/E23</f>
         <v>0</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="44">
         <f>F16/F23</f>
         <v>0</v>
       </c>
@@ -2371,15 +2386,15 @@
       <c r="I25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="43">
+      <c r="J25" s="44">
         <f t="shared" ref="J25:L25" si="7">J19/J24</f>
         <v>0</v>
       </c>
-      <c r="K25" s="43">
+      <c r="K25" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2389,15 +2404,15 @@
       <c r="C26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="44">
         <f>D17/D23</f>
         <v>0</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="44">
         <f>E17/E23</f>
         <v>0</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="44">
         <f>F17/F23</f>
         <v>0</v>
       </c>
@@ -2405,15 +2420,15 @@
       <c r="I26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="43">
+      <c r="J26" s="44">
         <f t="shared" ref="J26:L26" si="8">J20/J24</f>
         <v>0</v>
       </c>
-      <c r="K26" s="43">
+      <c r="K26" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L26" s="43">
+      <c r="L26" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2423,15 +2438,15 @@
       <c r="C27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="44">
         <f>D18/D23</f>
         <v>0</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="44">
         <f>E18/E23</f>
         <v>0</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="44">
         <f>F18/F23</f>
         <v>0</v>
       </c>
@@ -2439,15 +2454,15 @@
       <c r="I27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="44">
         <f t="shared" ref="J27:L27" si="9">J21/J24</f>
         <v>0</v>
       </c>
-      <c r="K27" s="43">
+      <c r="K27" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L27" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -2457,15 +2472,15 @@
       <c r="C28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="44">
         <f>D19/D23</f>
         <v>0</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="44">
         <f>E19/E23</f>
         <v>0</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="44">
         <f>F19/F23</f>
         <v>0</v>
       </c>
@@ -2473,15 +2488,15 @@
       <c r="I28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="43">
+      <c r="J28" s="44">
         <f t="shared" ref="J28:L28" si="10">J22/J24</f>
         <v>0</v>
       </c>
-      <c r="K28" s="43">
+      <c r="K28" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L28" s="43">
+      <c r="L28" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2491,15 +2506,15 @@
       <c r="C29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="44">
         <f>D20/D23</f>
         <v>0</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="44">
         <f>E20/E23</f>
         <v>0</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="44">
         <f>F20/F23</f>
         <v>0</v>
       </c>
@@ -2507,15 +2522,15 @@
       <c r="I29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="43">
+      <c r="J29" s="44">
         <f t="shared" ref="J29:L29" si="11">J23/J24</f>
         <v>0</v>
       </c>
-      <c r="K29" s="43">
+      <c r="K29" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L29" s="43">
+      <c r="L29" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2525,15 +2540,15 @@
       <c r="C30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="44">
         <f>D21/D23</f>
         <v>0</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="44">
         <f>E21/E23</f>
         <v>0</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="44">
         <f>F21/F23</f>
         <v>0</v>
       </c>
@@ -2543,15 +2558,15 @@
       <c r="C31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="44">
         <f>D22/D23</f>
         <v>0</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="44">
         <f>E22/E23</f>
         <v>0</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="44">
         <f>F22/F23</f>
         <v>0</v>
       </c>
@@ -2807,7 +2822,7 @@
       <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="22">
@@ -2820,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="36" t="s">
         <v>63</v>
       </c>
       <c r="J10" s="2">
@@ -2835,16 +2850,16 @@
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="3"/>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="30">
         <v>0.6</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="30">
         <v>0.01</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="30"/>
       <c r="H11" s="3" t="s">
         <v>64</v>
       </c>
@@ -2863,16 +2878,16 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="3"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="29">
-        <v>0</v>
-      </c>
-      <c r="E12" s="29">
-        <v>0</v>
-      </c>
-      <c r="F12" s="29">
+      <c r="D12" s="30">
+        <v>0</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="30">
         <v>0</v>
       </c>
       <c r="H12" s="3"/>
@@ -2891,16 +2906,16 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="3"/>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="29">
-        <v>0</v>
-      </c>
-      <c r="E13" s="29">
-        <v>0</v>
-      </c>
-      <c r="F13" s="29">
+      <c r="D13" s="30">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0</v>
+      </c>
+      <c r="F13" s="30">
         <v>0</v>
       </c>
       <c r="H13" s="3"/>
@@ -2919,16 +2934,16 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="3"/>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="29">
-        <v>0</v>
-      </c>
-      <c r="E14" s="29">
+      <c r="D14" s="30">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
         <v>0.435396</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="30">
         <v>0.272294</v>
       </c>
       <c r="H14" s="3"/>
@@ -2947,16 +2962,16 @@
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="3"/>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="29">
-        <v>0</v>
-      </c>
-      <c r="E15" s="29">
-        <v>0</v>
-      </c>
-      <c r="F15" s="29">
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30">
         <v>0</v>
       </c>
       <c r="H15" s="3"/>
@@ -2975,16 +2990,16 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="3"/>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="30">
         <v>0.66096</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="30">
         <v>1.12</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="30">
         <v>0.895317</v>
       </c>
       <c r="H16" s="3"/>
@@ -3003,16 +3018,16 @@
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="3"/>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="29">
-        <v>0</v>
-      </c>
-      <c r="E17" s="29">
-        <v>0</v>
-      </c>
-      <c r="F17" s="29">
+      <c r="D17" s="30">
+        <v>0</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0</v>
+      </c>
+      <c r="F17" s="30">
         <v>0</v>
       </c>
       <c r="H17" s="3"/>
@@ -3030,7 +3045,7 @@
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
@@ -3058,25 +3073,25 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="34">
         <f>SUM(D4:D9)/D18</f>
         <v>0.543547684714763</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="34">
         <f>SUM(E4:E9)/E18</f>
         <v>0.534636196950047</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="34">
         <f>SUM(F4:F9)/F18</f>
         <v>0.638172847718832</v>
       </c>
-      <c r="H19" s="30"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="22" t="s">
         <v>80</v>
       </c>
@@ -3091,55 +3106,55 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="34"/>
-      <c r="C20" s="32" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="34">
         <f>SUM(D10:D17)/D18</f>
         <v>0.313764552184642</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="34">
         <f>SUM(E10:E17)/E18</f>
         <v>0.00700056348106078</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="34">
         <f>SUM(F10:F17)/F18</f>
         <v>0.00647270358667332</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="37">
         <f>SUM(J4:J10)/J19</f>
         <v>0.671546744844319</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="37">
         <f>SUM(K4:K10)/K19</f>
         <v>0.643099959903769</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="37">
         <f>SUM(L4:L10)/L19</f>
         <v>0.628237170731707</v>
       </c>
     </row>
     <row r="21" spans="8:12">
       <c r="H21" s="3"/>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="37">
         <f>SUM(J11:J18)/J19</f>
         <v>0</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="37">
         <f>SUM(K11:K18)/K19</f>
         <v>0</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="37">
         <f>SUM(L11:L18)/L19</f>
         <v>0</v>
       </c>
@@ -3149,15 +3164,15 @@
       <c r="I22" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="38">
         <f t="shared" ref="J22:L22" si="0">SUM(J3:J10)/D18</f>
         <v>0.0602676404412832</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="38">
         <f t="shared" si="0"/>
         <v>0.0717271723089307</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="38">
         <f t="shared" si="0"/>
         <v>0.0713945451521703</v>
       </c>
@@ -3167,15 +3182,15 @@
       <c r="I23" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="38">
         <f t="shared" ref="J23:L23" si="1">SUM(J13:J18)/D18</f>
         <v>0</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3202,7 +3217,7 @@
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3582,7 +3597,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:12">
       <c r="B16" s="2" t="s">
         <v>114</v>
       </c>
@@ -3606,11 +3621,17 @@
         <v>25.56</v>
       </c>
       <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="2:11">
+      <c r="K16" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" s="26">
+        <f>C18+C10+C6</f>
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2">
         <v>0.947263</v>
@@ -3623,17 +3644,23 @@
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="26">
+        <v>119</v>
+      </c>
+      <c r="I17" s="27">
         <v>0.08</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="2:11">
+      <c r="K17" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="26">
+        <f>(L16+C7+C8+C9)/L16</f>
+        <v>3.71016635859519</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2">
         <v>53.28</v>
@@ -3646,17 +3673,23 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="26">
+        <v>122</v>
+      </c>
+      <c r="I18" s="27">
         <v>0.03</v>
       </c>
       <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="2:11">
+      <c r="K18" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="26">
+        <f>L16/(L16-C10)</f>
+        <v>0.975829725829726</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C19" s="12">
         <f>C4-C5</f>
@@ -3672,17 +3705,23 @@
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="26">
+        <v>125</v>
+      </c>
+      <c r="I19" s="27">
         <v>0.1</v>
       </c>
       <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="K19" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="26">
+        <f>L17*L18</f>
+        <v>3.62049062049062</v>
+      </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C20" s="13">
         <f>C19/C4</f>
@@ -3698,9 +3737,9 @@
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="27">
+        <v>128</v>
+      </c>
+      <c r="I20" s="28">
         <v>53.52</v>
       </c>
       <c r="J20" s="8"/>
@@ -3708,7 +3747,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C21" s="14">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
@@ -3724,7 +3763,7 @@
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I21" s="10">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
@@ -3735,7 +3774,7 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C22" s="15">
         <f>C21/C4</f>
@@ -3751,7 +3790,7 @@
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I22" s="10">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
@@ -3762,7 +3801,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C23" s="17">
         <f>C21/I4</f>
@@ -3778,7 +3817,7 @@
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I23" s="10">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
@@ -3789,7 +3828,7 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C24" s="18">
         <f>C7/C4</f>
@@ -3805,7 +3844,7 @@
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I24" s="10">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
@@ -3816,7 +3855,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C25" s="18">
         <f>C8/C4</f>
@@ -3832,7 +3871,7 @@
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I25" s="10">
         <f>SUM(I21:I24)</f>
@@ -3843,7 +3882,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C26" s="18">
         <f>C16/C4</f>
@@ -3859,7 +3898,7 @@
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I26" s="20">
         <f>I25/I20</f>
@@ -3868,7 +3907,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C27" s="18">
         <f>C18/C4</f>
@@ -3885,12 +3924,12 @@
     </row>
     <row r="28" spans="7:10">
       <c r="G28" s="21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" s="28">
+        <v>143</v>
+      </c>
+      <c r="I28" s="29">
         <v>0.1</v>
       </c>
       <c r="J28" s="2"/>
@@ -3898,9 +3937,9 @@
     <row r="29" spans="7:10">
       <c r="G29" s="23"/>
       <c r="H29" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" s="28">
+        <v>144</v>
+      </c>
+      <c r="I29" s="29">
         <v>0.04</v>
       </c>
       <c r="J29" s="22">
@@ -3911,9 +3950,9 @@
     <row r="30" spans="7:10">
       <c r="G30" s="23"/>
       <c r="H30" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="I30" s="28">
+        <v>145</v>
+      </c>
+      <c r="I30" s="29">
         <v>0.02</v>
       </c>
       <c r="J30" s="22">
@@ -3924,7 +3963,7 @@
     <row r="31" spans="7:10">
       <c r="G31" s="23"/>
       <c r="H31" s="22" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I31" s="22">
         <f>(C18*POWER(1+I28,3))*J29</f>
@@ -3938,7 +3977,7 @@
     <row r="32" spans="7:10">
       <c r="G32" s="23"/>
       <c r="H32" s="22" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I32" s="22">
         <f>I31*0.7</f>
@@ -3952,7 +3991,7 @@
     <row r="33" spans="7:10">
       <c r="G33" s="24"/>
       <c r="H33" s="22" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I33" s="22">
         <f>(C18*POWER(1+I28,3))*J30</f>

--- a/funds/stocks/恒瑞医药&财务报表同型分析.xlsx
+++ b/funds/stocks/恒瑞医药&财务报表同型分析.xlsx
@@ -16,267 +16,172 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
   <si>
     <t>项目</t>
   </si>
   <si>
-    <t>流动资产</t>
+    <t>经营性资产</t>
   </si>
   <si>
     <t>货币资金</t>
   </si>
   <si>
-    <t>流动负债</t>
+    <t>经营性负债</t>
+  </si>
+  <si>
+    <t>应付票据</t>
+  </si>
+  <si>
+    <t>固定资产</t>
+  </si>
+  <si>
+    <t>应付账款</t>
+  </si>
+  <si>
+    <t>应收票据</t>
+  </si>
+  <si>
+    <t>预收款项</t>
+  </si>
+  <si>
+    <t>应收账款</t>
+  </si>
+  <si>
+    <t>应付职工薪酬</t>
+  </si>
+  <si>
+    <t>预付款项</t>
+  </si>
+  <si>
+    <t>应交税费</t>
+  </si>
+  <si>
+    <t>存货</t>
+  </si>
+  <si>
+    <t>合同负债</t>
+  </si>
+  <si>
+    <t>无形资产</t>
+  </si>
+  <si>
+    <t>递延所得税负债</t>
+  </si>
+  <si>
+    <t>金融性资产
+（投资性资产）</t>
+  </si>
+  <si>
+    <t>交易性金融资产</t>
+  </si>
+  <si>
+    <t>递延收益-非流动负债</t>
+  </si>
+  <si>
+    <t>长期股权投资</t>
+  </si>
+  <si>
+    <t>金融性负债</t>
+  </si>
+  <si>
+    <t>应付利息</t>
+  </si>
+  <si>
+    <t>持有至到期投资</t>
+  </si>
+  <si>
+    <t>应付股利</t>
+  </si>
+  <si>
+    <t>投资性房地产</t>
+  </si>
+  <si>
+    <t>应付债券</t>
+  </si>
+  <si>
+    <t>长期应收款</t>
+  </si>
+  <si>
+    <t>交易性金融负债</t>
+  </si>
+  <si>
+    <t>应收利息</t>
+  </si>
+  <si>
+    <t>长期应付款合计</t>
+  </si>
+  <si>
+    <t>应收股利</t>
+  </si>
+  <si>
+    <t>长期借款</t>
+  </si>
+  <si>
+    <t>递延所得税资产</t>
   </si>
   <si>
     <t>短期借款</t>
   </si>
   <si>
-    <t>应收票据</t>
-  </si>
-  <si>
-    <t>应付票据</t>
-  </si>
-  <si>
-    <t>应收账款</t>
-  </si>
-  <si>
-    <t>应付账款</t>
-  </si>
-  <si>
-    <t>预付款项</t>
-  </si>
-  <si>
-    <t>合同负债</t>
-  </si>
-  <si>
-    <t>存货</t>
-  </si>
-  <si>
-    <t>应付职工薪酬</t>
-  </si>
-  <si>
-    <t>流动资产合计</t>
-  </si>
-  <si>
-    <t>应交税费</t>
-  </si>
-  <si>
-    <t>货币资金占流动资产比率</t>
-  </si>
-  <si>
-    <t>其他应付款</t>
-  </si>
-  <si>
-    <t>应收票据占流动资产比率</t>
-  </si>
-  <si>
-    <t>流动负债合计</t>
-  </si>
-  <si>
-    <t>应收账款占流动资产比率</t>
-  </si>
-  <si>
-    <t>短期借款占流动负债比率</t>
-  </si>
-  <si>
-    <t>预付款项占流动资产比率</t>
-  </si>
-  <si>
-    <t>应付票据占流动负债比率</t>
-  </si>
-  <si>
-    <t>存货占流动资产比率</t>
-  </si>
-  <si>
-    <t>应付账款占流动负债比率</t>
-  </si>
-  <si>
-    <t>非流动资产</t>
-  </si>
-  <si>
-    <t>长期股权投资</t>
-  </si>
-  <si>
-    <t>合同负债占流动负债比率</t>
-  </si>
-  <si>
-    <t>其他权益工具投资</t>
-  </si>
-  <si>
-    <t>应付职工薪酬占流动负债比率</t>
-  </si>
-  <si>
-    <t>固定资产</t>
-  </si>
-  <si>
-    <t>应交税费占流动负债比率</t>
-  </si>
-  <si>
-    <t>在建工程</t>
-  </si>
-  <si>
-    <t>其他应付款占流动负债比率</t>
-  </si>
-  <si>
-    <t>长期待摊费用</t>
-  </si>
-  <si>
-    <t>非流动负债</t>
-  </si>
-  <si>
-    <t>长期借款</t>
-  </si>
-  <si>
-    <t>无形资产</t>
-  </si>
-  <si>
-    <t>长期应付款</t>
-  </si>
-  <si>
-    <t>开发支出</t>
-  </si>
-  <si>
-    <t>递延所得税负债</t>
-  </si>
-  <si>
-    <t>商誉</t>
-  </si>
-  <si>
-    <t>递延收益</t>
-  </si>
-  <si>
-    <t>非流动资产合计</t>
-  </si>
-  <si>
-    <t>其他非流动负债</t>
-  </si>
-  <si>
-    <t>长期股权投资占非流动资产比率</t>
-  </si>
-  <si>
-    <t>非流动负债合计</t>
-  </si>
-  <si>
-    <t>其他权益工具投资占非流动资产比率</t>
-  </si>
-  <si>
-    <t>长期借款占非流动负债比率</t>
-  </si>
-  <si>
-    <t>固定资产占非流动资产比率</t>
-  </si>
-  <si>
-    <t>长期应付款占非流动负债比率</t>
-  </si>
-  <si>
-    <t>在建工程占非流动资产比率</t>
-  </si>
-  <si>
-    <t>递延所得税负债占非流动负债比率</t>
-  </si>
-  <si>
-    <t>长期待摊费用占非流动资产比率</t>
-  </si>
-  <si>
-    <t>递延收益占非流动负债比率</t>
-  </si>
-  <si>
-    <t>无形资产占非流动资产比率</t>
-  </si>
-  <si>
-    <t>其他非流动负债占非流动负债比率</t>
-  </si>
-  <si>
-    <t>开发支出占非流动资产比率</t>
-  </si>
-  <si>
-    <t>商誉占非流动资产比率</t>
-  </si>
-  <si>
-    <t>经营性资产</t>
-  </si>
-  <si>
-    <t>经营性负债</t>
+    <t>一年内到期的非流动资产</t>
+  </si>
+  <si>
+    <t>一年内到期的非流动负债</t>
+  </si>
+  <si>
+    <t>其他非流动资产</t>
+  </si>
+  <si>
+    <t>负债合计</t>
+  </si>
+  <si>
+    <t>资产合计</t>
+  </si>
+  <si>
+    <t>负债比率</t>
+  </si>
+  <si>
+    <t>经营性负债占总负债比率</t>
+  </si>
+  <si>
+    <t>资产比率</t>
+  </si>
+  <si>
+    <t>经营性资产占总资产比率</t>
+  </si>
+  <si>
+    <t>金融性负债占总负债比率</t>
+  </si>
+  <si>
+    <t>金融性资产占总资产比率</t>
+  </si>
+  <si>
+    <t>经营性负债占总资产比率</t>
+  </si>
+  <si>
+    <t>金融性负债占总资产比率</t>
+  </si>
+  <si>
+    <t>现金流增加量</t>
   </si>
   <si>
     <t>金融性资产</t>
   </si>
   <si>
-    <t>交易性金融资产</t>
-  </si>
-  <si>
-    <t>递延收益-非流动负债</t>
-  </si>
-  <si>
-    <t>金融性负债</t>
-  </si>
-  <si>
-    <t>应付利息</t>
-  </si>
-  <si>
-    <t>持有至到期投资</t>
-  </si>
-  <si>
-    <t>应付股利</t>
-  </si>
-  <si>
-    <t>长期应收款</t>
-  </si>
-  <si>
-    <t>应付债券</t>
-  </si>
-  <si>
-    <t>应收利息</t>
-  </si>
-  <si>
-    <t>交易性金融负债</t>
-  </si>
-  <si>
-    <t>应收股利</t>
-  </si>
-  <si>
-    <t>长期应付款合计</t>
-  </si>
-  <si>
-    <t>递延所得税资产</t>
-  </si>
-  <si>
-    <t>一年内到期的非流动资产</t>
-  </si>
-  <si>
-    <t>资产合计</t>
-  </si>
-  <si>
-    <t>一年内到期的非流动负债</t>
-  </si>
-  <si>
-    <t>资产比率</t>
-  </si>
-  <si>
     <t>经营性资产占比</t>
   </si>
   <si>
-    <t>负债合计</t>
-  </si>
-  <si>
     <t>金融性资产占比</t>
   </si>
   <si>
-    <t>负债比率</t>
-  </si>
-  <si>
     <t>经营性负债占比</t>
   </si>
   <si>
     <t>金融性负债占比</t>
   </si>
   <si>
-    <t>经营性负债占总资产比率</t>
-  </si>
-  <si>
-    <t>金融性负债占总资产比率</t>
+    <t>分项</t>
   </si>
   <si>
     <t>营业收入</t>
@@ -288,13 +193,16 @@
     <t>经营活动产生的现金流量净额</t>
   </si>
   <si>
+    <t>资本性支出</t>
+  </si>
+  <si>
     <t>营业成本</t>
   </si>
   <si>
     <t>投资现金流</t>
   </si>
   <si>
-    <t>资本性支出</t>
+    <t>核心利润</t>
   </si>
   <si>
     <t>营业税金及附加</t>
@@ -303,6 +211,9 @@
     <t>投资支付的现金</t>
   </si>
   <si>
+    <t>持续经营净利润</t>
+  </si>
+  <si>
     <t>销售费用</t>
   </si>
   <si>
@@ -369,43 +280,37 @@
     <t>自由现金流均值(FCF)</t>
   </si>
   <si>
+    <t>营业外支出</t>
+  </si>
+  <si>
+    <t>折现率(r)</t>
+  </si>
+  <si>
     <t>EBIT</t>
   </si>
   <si>
-    <t>营业外支出</t>
-  </si>
-  <si>
-    <t>折现率(r)</t>
+    <t>永续年金增长率(g)</t>
   </si>
   <si>
     <t>经营杠杆</t>
   </si>
   <si>
-    <t>持续经营净利润</t>
-  </si>
-  <si>
-    <t>永续年金增长率(g)</t>
+    <t>毛利</t>
+  </si>
+  <si>
+    <t>自由现金流增长率(G)</t>
   </si>
   <si>
     <t>财务杠杆</t>
   </si>
   <si>
-    <t>毛利</t>
-  </si>
-  <si>
-    <t>自由现金流增长率(G)</t>
+    <t>毛利率</t>
+  </si>
+  <si>
+    <t>总股本</t>
   </si>
   <si>
     <t>总杠杆</t>
-  </si>
-  <si>
-    <t>毛利率</t>
-  </si>
-  <si>
-    <t>总股本</t>
-  </si>
-  <si>
-    <t>核心利润</t>
   </si>
   <si>
     <t>第一年价值</t>
@@ -470,14 +375,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="\+0;\-0;0;@"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -512,6 +417,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -526,11 +455,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,48 +469,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,8 +491,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,17 +508,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -641,14 +537,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,7 +592,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,13 +646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,7 +664,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,150 +778,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -934,47 +845,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,17 +874,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,24 +903,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,17 +941,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1075,10 +949,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,137 +961,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1257,7 +1131,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1269,7 +1143,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1293,14 +1167,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1335,22 +1224,16 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="11" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1674,19 +1557,20 @@
   <sheetPr/>
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.6393442622951" customWidth="1"/>
+    <col min="1" max="1" width="7.26229508196721" customWidth="1"/>
+    <col min="2" max="2" width="14.983606557377" customWidth="1"/>
     <col min="3" max="3" width="32.9262295081967" customWidth="1"/>
-    <col min="4" max="4" width="7.45081967213115" customWidth="1"/>
+    <col min="4" max="4" width="13.155737704918" customWidth="1"/>
     <col min="5" max="6" width="9.45081967213115" customWidth="1"/>
     <col min="8" max="8" width="10.6393442622951" customWidth="1"/>
-    <col min="9" max="9" width="30.9262295081967" customWidth="1"/>
-    <col min="10" max="10" width="8.45081967213115" customWidth="1"/>
+    <col min="9" max="9" width="24.5081967213115" customWidth="1"/>
+    <col min="10" max="10" width="10.0737704918033" customWidth="1"/>
     <col min="11" max="12" width="9.45081967213115" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1719,16 +1603,16 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="41"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="3" t="s">
@@ -1738,15 +1622,15 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>50.44</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="32" t="s">
+        <v>42.67</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1768,26 +1652,26 @@
         <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>25.42</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>23.29</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="42"/>
+        <v>19.98</v>
+      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>12.89</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>14.02</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -1796,27 +1680,21 @@
         <v>7</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>5.29</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>6.59</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="42"/>
+        <v>9.89</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="3"/>
@@ -1824,26 +1702,26 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>49.06</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>37.73</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="42"/>
+        <v>31.89</v>
+      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>0.00642</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>0.000413</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>0.001149</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -1852,26 +1730,26 @@
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>5.91</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>5.69</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="42"/>
+        <v>3.3</v>
+      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="9" spans="2:12">
@@ -1880,15 +1758,15 @@
         <v>13</v>
       </c>
       <c r="D9" s="2">
-        <v>5</v>
+        <v>16.07</v>
       </c>
       <c r="E9" s="2">
-        <v>90.88</v>
-      </c>
-      <c r="F9" s="43">
-        <v>113.6</v>
-      </c>
-      <c r="H9" s="42"/>
+        <v>10.31</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1904,27 +1782,24 @@
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="44">
-        <f>D4/D9</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="44">
-        <f>E4/E9</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="44">
-        <f>F4/F9</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="42"/>
+      <c r="D10" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.73</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.79</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>0.240931</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -1934,651 +1809,457 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="44">
-        <f>D5/D9</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="44">
-        <f>E5/E9</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="44">
-        <f>F5/F9</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="2" t="s">
+      <c r="C11" s="35" t="s">
         <v>18</v>
       </c>
+      <c r="D11" s="22">
+        <v>85.2</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="J11" s="2">
-        <v>52.94</v>
+        <v>1.22</v>
       </c>
       <c r="K11" s="2">
-        <v>53.7</v>
-      </c>
-      <c r="L11" s="43">
-        <v>44.11</v>
+        <v>0.6985</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.457713</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="44">
-        <f>D6/D9</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="44">
-        <f>E6/E9</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="44">
-        <f>F6/F9</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="4" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="44">
-        <f t="shared" ref="J12:L12" si="0">J4/J11</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="44">
+      <c r="D12" s="35">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="45"/>
+      <c r="C13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="35">
+        <v>0</v>
+      </c>
+      <c r="E13" s="35">
+        <v>0</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="45"/>
+      <c r="C14" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0</v>
+      </c>
+      <c r="E14" s="35">
+        <v>0</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="45"/>
+      <c r="C15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="35">
+        <v>0</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="45"/>
+      <c r="C16" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="35">
+        <v>0</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0.435396</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0.272294</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="45"/>
+      <c r="C17" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="45"/>
+      <c r="C18" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0.66096</v>
+      </c>
+      <c r="E18" s="35">
+        <v>1.12</v>
+      </c>
+      <c r="F18" s="35">
+        <v>0.895317</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="45"/>
+      <c r="C19" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="35">
+        <v>0</v>
+      </c>
+      <c r="E19" s="35">
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="46"/>
+      <c r="C20" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="35">
+        <v>0</v>
+      </c>
+      <c r="E20" s="35">
+        <v>0</v>
+      </c>
+      <c r="F20" s="35">
+        <v>0</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="22">
+        <v>24.73</v>
+      </c>
+      <c r="K20" s="22">
+        <v>24.94</v>
+      </c>
+      <c r="L20" s="22">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="36"/>
+      <c r="C21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="22">
+        <v>275.56</v>
+      </c>
+      <c r="E21" s="22">
+        <v>223.61</v>
+      </c>
+      <c r="F21" s="22">
+        <v>180.39</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="42">
+        <f t="shared" ref="J21:L21" si="0">SUM(J4:J11)/J20</f>
+        <v>0.671546744844319</v>
+      </c>
+      <c r="K21" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="44">
+        <v>0.643099959903769</v>
+      </c>
+      <c r="L21" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="44">
-        <f>D7/D9</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="44">
-        <f>E7/E9</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="44">
-        <f>F7/F9</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="44">
-        <f t="shared" ref="J13:L13" si="1">J5/J11</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="44">
+        <v>0.628237170731707</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="39">
+        <f t="shared" ref="D22:F22" si="1">SUM(D4:D10)/D21</f>
+        <v>0.564994919436783</v>
+      </c>
+      <c r="E22" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="44">
+        <v>0.560082286123161</v>
+      </c>
+      <c r="F22" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="44">
-        <f>D8/D9</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="44">
-        <f>E8/E9</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="44">
-        <f>F8/F9</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="44">
-        <f t="shared" ref="J14:L14" si="2">J6/J11</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="44">
+        <v>0.656466544708687</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="42">
+        <f t="shared" ref="J22:L22" si="2">SUM(J12:J19)/J20</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L22" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="44">
-        <f t="shared" ref="J15:L15" si="3">J7/J11</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="3"/>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="44">
-        <f t="shared" ref="J16:L16" si="4">J8/J11</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="3"/>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="44">
-        <f t="shared" ref="J17:L17" si="5">J9/J11</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="3"/>
-      <c r="C18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="44">
-        <f t="shared" ref="J18:L18" si="6">J10/J11</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="44">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="44">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="3"/>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="3"/>
-      <c r="C23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="2">
-        <v>51.03</v>
-      </c>
-      <c r="E23" s="2">
-        <v>49.66</v>
-      </c>
-      <c r="F23" s="2">
-        <v>45.38</v>
+      <c r="C23" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="39">
+        <f t="shared" ref="D23:F23" si="3">SUM(D11:D20)/D21</f>
+        <v>0.313764552184642</v>
+      </c>
+      <c r="E23" s="39">
+        <f t="shared" si="3"/>
+        <v>0.00700056348106078</v>
+      </c>
+      <c r="F23" s="39">
+        <f t="shared" si="3"/>
+        <v>0.00647270358667332</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="44">
-        <f>D15/D23</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="44">
-        <f>E15/E23</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="44">
-        <f>F15/F23</f>
-        <v>0</v>
-      </c>
+      <c r="I23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="43">
+        <f t="shared" ref="J23:L23" si="4">SUM(J4:J11)/D21</f>
+        <v>0.0602676404412832</v>
+      </c>
+      <c r="K23" s="43">
+        <f t="shared" si="4"/>
+        <v>0.0717271723089307</v>
+      </c>
+      <c r="L23" s="43">
+        <f t="shared" si="4"/>
+        <v>0.0713945451521703</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12">
       <c r="H24" s="3"/>
-      <c r="I24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="2">
-        <v>4.08</v>
-      </c>
-      <c r="K24" s="2">
-        <v>3.18</v>
-      </c>
-      <c r="L24" s="2">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4" t="s">
+      <c r="I24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="44">
-        <f>D16/D23</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="44">
-        <f>E16/E23</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="44">
-        <f>F16/F23</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4" t="s">
+      <c r="J24" s="43">
+        <f t="shared" ref="J24:L24" si="5">SUM(J12:J19)/D21</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="3:4">
+      <c r="C27">
+        <v>2020</v>
+      </c>
+      <c r="D27">
+        <v>108.05</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="2:5">
+      <c r="B30" s="47"/>
+      <c r="C30" s="47">
+        <v>2020</v>
+      </c>
+      <c r="D30" s="47">
+        <v>2019</v>
+      </c>
+      <c r="E30" s="47">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="2:5">
+      <c r="B31" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="44">
-        <f t="shared" ref="J25:L25" si="7">J19/J24</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="44">
-        <f>D17/D23</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="44">
-        <f>E17/E23</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="44">
-        <f>F17/F23</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="44">
-        <f t="shared" ref="J26:L26" si="8">J20/J24</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="44">
-        <f>D18/D23</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="44">
-        <f>E18/E23</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="44">
-        <f>F18/F23</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="44">
-        <f t="shared" ref="J27:L27" si="9">J21/J24</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="44">
-        <f>D19/D23</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="44">
-        <f>E19/E23</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="44">
-        <f>F19/F23</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="44">
-        <f t="shared" ref="J28:L28" si="10">J22/J24</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="44">
-        <f>D20/D23</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="44">
-        <f>E20/E23</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="44">
-        <f>F20/F23</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="44">
-        <f t="shared" ref="J29:L29" si="11">J23/J24</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="44">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="44">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="3"/>
-      <c r="C30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="44">
-        <f>D21/D23</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="44">
-        <f>E21/E23</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="44">
-        <f>F21/F23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="3"/>
-      <c r="C31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="44">
-        <f>D22/D23</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="44">
-        <f>E22/E23</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="44">
-        <f>F22/F23</f>
-        <v>0</v>
+      <c r="C31" s="47">
+        <f>D27-D4</f>
+        <v>57.61</v>
+      </c>
+      <c r="D31" s="47">
+        <f>D4-E4</f>
+        <v>11.54</v>
+      </c>
+      <c r="E31" s="47">
+        <f>E4-F4</f>
+        <v>-3.77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="B15:B31"/>
-    <mergeCell ref="H4:H18"/>
-    <mergeCell ref="H19:H29"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="H4:H11"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="H21:H24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2590,8 +2271,8 @@
   <sheetPr/>
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:L30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -2648,7 +2329,7 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -2663,10 +2344,10 @@
         <v>42.67</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -2681,7 +2362,7 @@
     <row r="5" spans="2:12">
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
         <v>25.42</v>
@@ -2694,7 +2375,7 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="2">
         <v>12.89</v>
@@ -2709,7 +2390,7 @@
     <row r="6" spans="2:12">
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
         <v>5.29</v>
@@ -2722,7 +2403,7 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2">
         <v>0.00642</v>
@@ -2737,7 +2418,7 @@
     <row r="7" spans="2:12">
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>49.06</v>
@@ -2750,7 +2431,7 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="2">
         <v>2.25</v>
@@ -2765,7 +2446,7 @@
     <row r="8" spans="2:12">
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>16.07</v>
@@ -2778,7 +2459,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -2793,7 +2474,7 @@
     <row r="9" spans="2:12">
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
         <v>3.5</v>
@@ -2806,7 +2487,7 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J9" s="2">
         <v>0.240931</v>
@@ -2820,10 +2501,10 @@
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="22">
         <v>85.2</v>
@@ -2835,8 +2516,8 @@
         <v>0</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="36" t="s">
-        <v>63</v>
+      <c r="I10" s="41" t="s">
+        <v>19</v>
       </c>
       <c r="J10" s="2">
         <v>1.22</v>
@@ -2850,21 +2531,23 @@
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="3"/>
-      <c r="C11" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="30">
+      <c r="C11" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="35">
         <v>0.6</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="35">
         <v>0.01</v>
       </c>
-      <c r="F11" s="30"/>
+      <c r="F11" s="35">
+        <v>0</v>
+      </c>
       <c r="H11" s="3" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -2878,21 +2561,21 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="3"/>
-      <c r="C12" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="30">
-        <v>0</v>
-      </c>
-      <c r="E12" s="30">
-        <v>0</v>
-      </c>
-      <c r="F12" s="30">
+      <c r="C12" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="35">
+        <v>0</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0</v>
+      </c>
+      <c r="F12" s="35">
         <v>0</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="22" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -2906,21 +2589,21 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="3"/>
-      <c r="C13" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="30">
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30">
+      <c r="C13" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="35">
+        <v>0</v>
+      </c>
+      <c r="E13" s="35">
+        <v>0</v>
+      </c>
+      <c r="F13" s="35">
         <v>0</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="22" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -2934,21 +2617,21 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="3"/>
-      <c r="C14" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="30">
-        <v>0</v>
-      </c>
-      <c r="E14" s="30">
+      <c r="C14" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0</v>
+      </c>
+      <c r="E14" s="35">
         <v>0.435396</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="35">
         <v>0.272294</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="22" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -2962,21 +2645,21 @@
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="3"/>
-      <c r="C15" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="30">
-        <v>0</v>
-      </c>
-      <c r="E15" s="30">
-        <v>0</v>
-      </c>
-      <c r="F15" s="30">
+      <c r="C15" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="35">
+        <v>0</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="35">
         <v>0</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="22" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -2990,21 +2673,21 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="3"/>
-      <c r="C16" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="30">
+      <c r="C16" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="35">
         <v>0.66096</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="35">
         <v>1.12</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="35">
         <v>0.895317</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -3018,21 +2701,21 @@
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="3"/>
-      <c r="C17" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="30">
-        <v>0</v>
-      </c>
-      <c r="E17" s="30">
-        <v>0</v>
-      </c>
-      <c r="F17" s="30">
+      <c r="C17" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35">
         <v>0</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="22" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -3045,9 +2728,9 @@
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="31"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2">
         <v>275.56</v>
@@ -3060,7 +2743,7 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="22" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -3073,27 +2756,27 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="34">
+      <c r="B19" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="39">
         <f>SUM(D4:D9)/D18</f>
         <v>0.543547684714763</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="39">
         <f>SUM(E4:E9)/E18</f>
         <v>0.534636196950047</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="39">
         <f>SUM(F4:F9)/F18</f>
         <v>0.638172847718832</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="22" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J19" s="22">
         <v>24.73</v>
@@ -3106,55 +2789,55 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="35"/>
-      <c r="C20" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="34">
+      <c r="B20" s="40"/>
+      <c r="C20" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="39">
         <f>SUM(D10:D17)/D18</f>
         <v>0.313764552184642</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="39">
         <f>SUM(E10:E17)/E18</f>
         <v>0.00700056348106078</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="39">
         <f>SUM(F10:F17)/F18</f>
         <v>0.00647270358667332</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" s="37">
+        <v>40</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="42">
         <f>SUM(J4:J10)/J19</f>
         <v>0.671546744844319</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="42">
         <f>SUM(K4:K10)/K19</f>
         <v>0.643099959903769</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="42">
         <f>SUM(L4:L10)/L19</f>
         <v>0.628237170731707</v>
       </c>
     </row>
     <row r="21" spans="8:12">
       <c r="H21" s="3"/>
-      <c r="I21" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="J21" s="37">
+      <c r="I21" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="42">
         <f>SUM(J11:J18)/J19</f>
         <v>0</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="42">
         <f>SUM(K11:K18)/K19</f>
         <v>0</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="42">
         <f>SUM(L11:L18)/L19</f>
         <v>0</v>
       </c>
@@ -3162,17 +2845,17 @@
     <row r="22" spans="8:12">
       <c r="H22" s="3"/>
       <c r="I22" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J22" s="38">
+        <v>46</v>
+      </c>
+      <c r="J22" s="43">
         <f t="shared" ref="J22:L22" si="0">SUM(J3:J10)/D18</f>
         <v>0.0602676404412832</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="43">
         <f t="shared" si="0"/>
         <v>0.0717271723089307</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="43">
         <f t="shared" si="0"/>
         <v>0.0713945451521703</v>
       </c>
@@ -3180,17 +2863,17 @@
     <row r="23" spans="8:12">
       <c r="H23" s="3"/>
       <c r="I23" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="38">
+        <v>47</v>
+      </c>
+      <c r="J23" s="43">
         <f t="shared" ref="J23:L23" si="1">SUM(J13:J18)/D18</f>
         <v>0</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3214,10 +2897,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L33"/>
+  <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3225,13 +2908,15 @@
     <col min="2" max="2" width="14.7295081967213" customWidth="1"/>
     <col min="3" max="5" width="10.4508196721311" customWidth="1"/>
     <col min="7" max="7" width="10.6393442622951" customWidth="1"/>
-    <col min="8" max="8" width="30.5" customWidth="1"/>
+    <col min="8" max="8" width="32.6803278688525" customWidth="1"/>
     <col min="9" max="9" width="9.16393442622951" customWidth="1"/>
     <col min="10" max="11" width="9.45081967213115" customWidth="1"/>
     <col min="12" max="12" width="8.72131147540984" style="1"/>
+    <col min="13" max="13" width="13.7049180327869" customWidth="1"/>
+    <col min="16" max="16" width="10.4508196721311"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:16">
       <c r="B2" s="2"/>
       <c r="C2" s="2">
         <v>2019</v>
@@ -3253,8 +2938,20 @@
       <c r="K2" s="2">
         <v>2017</v>
       </c>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="M2" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="26">
+        <v>2019</v>
+      </c>
+      <c r="O2" s="26">
+        <v>2018</v>
+      </c>
+      <c r="P2" s="26">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3268,10 +2965,25 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="M3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="26">
+        <f>C4</f>
+        <v>232.89</v>
+      </c>
+      <c r="O3" s="26">
+        <f>D4</f>
+        <v>174.18</v>
+      </c>
+      <c r="P3" s="26">
+        <f>E4</f>
+        <v>138.36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2">
         <v>232.89</v>
@@ -3283,10 +2995,10 @@
         <v>138.36</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="I4" s="4">
         <v>38.17</v>
@@ -3297,11 +3009,26 @@
       <c r="K4" s="4">
         <v>25.47</v>
       </c>
-      <c r="L4" s="25"/>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="L4" s="27"/>
+      <c r="M4" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="26">
+        <f>I5</f>
+        <v>5.61</v>
+      </c>
+      <c r="O4" s="26">
+        <f>J5</f>
+        <v>5.29</v>
+      </c>
+      <c r="P4" s="26">
+        <f>K5</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2">
         <v>29.13</v>
@@ -3313,10 +3040,10 @@
         <v>18.5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I5" s="2">
         <v>5.61</v>
@@ -3327,10 +3054,25 @@
       <c r="K5" s="2">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="M5" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="26">
+        <f>C21</f>
+        <v>56.32</v>
+      </c>
+      <c r="O5" s="26">
+        <f>D21</f>
+        <v>42.1</v>
+      </c>
+      <c r="P5" s="26">
+        <f>E21</f>
+        <v>36.266317</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2">
         <v>2.16</v>
@@ -3343,7 +3085,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2">
         <v>285.7</v>
@@ -3354,10 +3096,25 @@
       <c r="K6" s="2">
         <v>66.04</v>
       </c>
+      <c r="M6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="26">
+        <f>C18</f>
+        <v>53.28</v>
+      </c>
+      <c r="O6" s="26">
+        <f>D18</f>
+        <v>40.66</v>
+      </c>
+      <c r="P6" s="26">
+        <f>E18</f>
+        <v>32.17</v>
+      </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2">
         <v>85.25</v>
@@ -3370,7 +3127,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="I7" s="4">
         <v>-19.45</v>
@@ -3384,7 +3141,7 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2">
         <v>22.41</v>
@@ -3396,10 +3153,10 @@
         <v>11.94</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2">
         <v>0.970131</v>
@@ -3413,7 +3170,7 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2">
         <v>38.96</v>
@@ -3426,7 +3183,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -3440,7 +3197,7 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2">
         <v>-1.34</v>
@@ -3453,7 +3210,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
@@ -3467,10 +3224,10 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2">
         <v>0.25344</v>
@@ -3480,7 +3237,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2">
         <v>8.11</v>
@@ -3494,7 +3251,7 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2">
         <v>0.1323</v>
@@ -3507,7 +3264,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="I12" s="2">
         <v>0.046319</v>
@@ -3521,7 +3278,7 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2">
         <v>3.09</v>
@@ -3534,7 +3291,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="I13" s="4">
         <v>-7.19</v>
@@ -3548,7 +3305,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2">
         <v>0.012391</v>
@@ -3560,10 +3317,10 @@
         <v>0.016543</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="I14" s="7">
         <f>I4-I5</f>
@@ -3580,7 +3337,7 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2">
         <v>1.9</v>
@@ -3597,9 +3354,9 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:14">
       <c r="B16" s="2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2">
         <v>0.008085</v>
@@ -3611,56 +3368,69 @@
         <v>0.017136</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="I16" s="10">
         <f>SUM(I14:K14)/3</f>
         <v>25.56</v>
       </c>
       <c r="J16" s="8"/>
-      <c r="K16" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="L16" s="26">
+      <c r="K16" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29">
+        <v>2019</v>
+      </c>
+      <c r="M16" s="29">
+        <v>2018</v>
+      </c>
+      <c r="N16" s="29">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.947263</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.979961</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.50346</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="32">
         <f>C18+C10+C6</f>
         <v>54.1</v>
       </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.947263</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.979961</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.50346</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="27">
-        <v>0.08</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="26">
-        <f>(L16+C7+C8+C9)/L16</f>
-        <v>3.71016635859519</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
+      <c r="M17" s="32">
+        <f>D18+D10+D6</f>
+        <v>41.79</v>
+      </c>
+      <c r="N17" s="32">
+        <f>E18+E10+E6</f>
+        <v>34.343683</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" s="2" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2">
         <v>53.28</v>
@@ -3673,23 +3443,31 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" s="27">
+        <v>90</v>
+      </c>
+      <c r="I18" s="30">
         <v>0.03</v>
       </c>
       <c r="J18" s="8"/>
-      <c r="K18" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" s="26">
-        <f>L16/(L16-C10)</f>
-        <v>0.975829725829726</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
+      <c r="K18" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="32">
+        <f>(L17+C7+C8+C9)/L17</f>
+        <v>3.71016635859519</v>
+      </c>
+      <c r="M18" s="32">
+        <f>(M17+F7+F8+F9)/M17</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="32">
+        <f>(N17+F8+F9+F10)/N17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" s="12" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C19" s="12">
         <f>C4-C5</f>
@@ -3705,23 +3483,31 @@
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="27">
+        <v>93</v>
+      </c>
+      <c r="I19" s="30">
         <v>0.1</v>
       </c>
       <c r="J19" s="8"/>
-      <c r="K19" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="L19" s="26">
-        <f>L17*L18</f>
-        <v>3.62049062049062</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
+      <c r="K19" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="32">
+        <f>L17/(L17-C10)</f>
+        <v>0.975829725829726</v>
+      </c>
+      <c r="M19" s="32">
+        <f>M17/(M17-F10)</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="32">
+        <f>N17/(N17-F11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
       <c r="B20" s="12" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C20" s="13">
         <f>C19/C4</f>
@@ -3737,17 +3523,31 @@
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="28">
+        <v>96</v>
+      </c>
+      <c r="I20" s="33">
         <v>53.52</v>
       </c>
       <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="K20" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="32">
+        <f t="shared" ref="L20:N20" si="0">L18*L19</f>
+        <v>3.62049062049062</v>
+      </c>
+      <c r="M20" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="14" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="C21" s="14">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
@@ -3763,7 +3563,7 @@
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="10" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="I21" s="10">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
@@ -3774,7 +3574,7 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="14" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C22" s="15">
         <f>C21/C4</f>
@@ -3790,7 +3590,7 @@
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="10" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="I22" s="10">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
@@ -3801,7 +3601,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="16" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C23" s="17">
         <f>C21/I4</f>
@@ -3817,7 +3617,7 @@
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="10" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="I23" s="10">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
@@ -3828,7 +3628,7 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="4" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C24" s="18">
         <f>C7/C4</f>
@@ -3844,7 +3644,7 @@
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="10" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="I24" s="10">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
@@ -3855,7 +3655,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="4" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C25" s="18">
         <f>C8/C4</f>
@@ -3871,7 +3671,7 @@
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="10" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="I25" s="10">
         <f>SUM(I21:I24)</f>
@@ -3882,7 +3682,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="4" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C26" s="18">
         <f>C16/C4</f>
@@ -3898,7 +3698,7 @@
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="20" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="I26" s="20">
         <f>I25/I20</f>
@@ -3907,7 +3707,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="4" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C27" s="18">
         <f>C18/C4</f>
@@ -3924,12 +3724,12 @@
     </row>
     <row r="28" spans="7:10">
       <c r="G28" s="21" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="I28" s="29">
+        <v>111</v>
+      </c>
+      <c r="I28" s="34">
         <v>0.1</v>
       </c>
       <c r="J28" s="2"/>
@@ -3937,9 +3737,9 @@
     <row r="29" spans="7:10">
       <c r="G29" s="23"/>
       <c r="H29" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="I29" s="29">
+        <v>112</v>
+      </c>
+      <c r="I29" s="34">
         <v>0.04</v>
       </c>
       <c r="J29" s="22">
@@ -3950,9 +3750,9 @@
     <row r="30" spans="7:10">
       <c r="G30" s="23"/>
       <c r="H30" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="I30" s="29">
+        <v>113</v>
+      </c>
+      <c r="I30" s="34">
         <v>0.02</v>
       </c>
       <c r="J30" s="22">
@@ -3963,7 +3763,7 @@
     <row r="31" spans="7:10">
       <c r="G31" s="23"/>
       <c r="H31" s="22" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="I31" s="22">
         <f>(C18*POWER(1+I28,3))*J29</f>
@@ -3977,7 +3777,7 @@
     <row r="32" spans="7:10">
       <c r="G32" s="23"/>
       <c r="H32" s="22" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="I32" s="22">
         <f>I31*0.7</f>
@@ -3991,7 +3791,7 @@
     <row r="33" spans="7:10">
       <c r="G33" s="24"/>
       <c r="H33" s="22" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="I33" s="22">
         <f>(C18*POWER(1+I28,3))*J30</f>
